--- a/biology/Zoologie/Epicyon/Epicyon.xlsx
+++ b/biology/Zoologie/Epicyon/Epicyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epicyon (du grec, « bien plus qu'un chien ») est un genre fossile de très grands canidés appartenant à la sous-famille éteinte des Borophaginae, ayant vécu en Amérique du Nord du Miocène inférieur jusqu'au début du Pliocène, d'environ 20,6 à 4,9 millions d'années.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Epicyon a été créé par Joseph Leidy en 1858, qui le considérait alors comme un genre proche de Canis[1]. Il a également été rapproché du genre Aelurodon par William Diller Matthew &amp; Stirton en 1930. Des études ultérieures ont montré que c'était un genre de Borophagina bien distinct.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Epicyon a été créé par Joseph Leidy en 1858, qui le considérait alors comme un genre proche de Canis. Il a également été rapproché du genre Aelurodon par William Diller Matthew &amp; Stirton en 1930. Des études ultérieures ont montré que c'était un genre de Borophagina bien distinct.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epicyon avait une tête massive et de puissantes mâchoires, donnant à son crâne une apparence féline, plutôt qu'un crâne similaire à celui d'un loup. La plus grande espèce, Epicyon haydeni, était bien plus grande qu'un jaguar, avec une longueur d'environ 2,4 m, une hauteur de 90 cm au garrot, et un poids compris entre 100 et 125 kg[2], ce qui en fait le plus grand canidé connu.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epicyon avait une tête massive et de puissantes mâchoires, donnant à son crâne une apparence féline, plutôt qu'un crâne similaire à celui d'un loup. La plus grande espèce, Epicyon haydeni, était bien plus grande qu'un jaguar, avec une longueur d'environ 2,4 m, une hauteur de 90 cm au garrot, et un poids compris entre 100 et 125 kg, ce qui en fait le plus grand canidé connu.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme ci-dessous donne la classification phylogénétique des Borophaginae, d'après Wang et al. 1999[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous donne la classification phylogénétique des Borophaginae, d'après Wang et al. 1999 :
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>† Epicyon haydeni Leidy, 1858
 † Epicyon saevus Leidy, 1858
-† Epicyon aelurodontoides Wang et al., 1999[3]</t>
+† Epicyon aelurodontoides Wang et al., 1999</t>
         </is>
       </c>
     </row>
@@ -636,10 +656,12 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En Amérique du Nord, dans des endroits tels que Coffee Ranch au Texas, Epicyon partageait son territoire avec l'ours Agriotherium, le Feliformia Barbourofelis, le Felidae et Machairodontinae Amphimachairodus, et avec son proche cousin de la même sous-famille Borophagus. Tous ces animaux étaient des concurrents potentiels d'Epicyon pour la nourriture et le territoire.
-Epicyon aurait inclus dans son régime des herbivores comme le chameau Aepycamelus, l'antilope d'Amérique Cosoryx, des chevaux comme Neohipparion et Nannippus, le pécari Prosthennops et les rhinocéros du genre Teleoceras, qui pouvaient tous lui fournir un repas convenable par la chasse[4],[5].
+Epicyon aurait inclus dans son régime des herbivores comme le chameau Aepycamelus, l'antilope d'Amérique Cosoryx, des chevaux comme Neohipparion et Nannippus, le pécari Prosthennops et les rhinocéros du genre Teleoceras, qui pouvaient tous lui fournir un repas convenable par la chasse,.
 </t>
         </is>
       </c>
